--- a/Teszeteles24.03.14.xlsx
+++ b/Teszeteles24.03.14.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LajkóGergő(SZOFT_202\OneDrive - SZÁMALK-Szalézi Technikum és Szakgimnázium\Szoftvertesztelés\2024.03.14\teszt3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_AD4DB114E441178AC67DF4F54E51FA56683EDF29" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{22B87ABA-56A4-4C9C-AB9B-765E13BE21E0}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_AD4DB114E441178AC67DF4F54E51FA56683EDF29" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F8D7646E-8496-4811-AC89-7794C12E2144}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,16 +636,82 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
